--- a/data/steel/industries/steel_industry_6countries.xlsx
+++ b/data/steel/industries/steel_industry_6countries.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/industries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183B9CE4-D530-1347-8BFB-BCC2E8C6500C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="25600" windowHeight="17100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="465" windowWidth="25605" windowHeight="17100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Factory List" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Bioenergy" sheetId="13" r:id="rId4"/>
     <sheet name="BECCS" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,9 +69,6 @@
     <t>crude steel</t>
   </si>
   <si>
-    <t>EU-0B-2015</t>
-  </si>
-  <si>
     <t>data/steel/factories/steel_simplified_factory.xlsx</t>
   </si>
   <si>
@@ -151,43 +147,46 @@
     <t>US BF-BOF bio w CCS BF CO</t>
   </si>
   <si>
-    <t>CH-0B-2015</t>
-  </si>
-  <si>
-    <t>IN-0B-2015</t>
-  </si>
-  <si>
-    <t>JP-0B-2015</t>
-  </si>
-  <si>
-    <t>RU-0B-2015</t>
-  </si>
-  <si>
-    <t>US-0B-2015</t>
-  </si>
-  <si>
-    <t>EU-CB-2015</t>
-  </si>
-  <si>
-    <t>CH-CB-2015</t>
-  </si>
-  <si>
-    <t>IN-CB-2015</t>
-  </si>
-  <si>
-    <t>JP-CB-2015</t>
-  </si>
-  <si>
-    <t>RU-CB-2015</t>
-  </si>
-  <si>
-    <t>US-CB-2015</t>
+    <t>EU-0B</t>
+  </si>
+  <si>
+    <t>CH-0B</t>
+  </si>
+  <si>
+    <t>IN-0B</t>
+  </si>
+  <si>
+    <t>JP-0B</t>
+  </si>
+  <si>
+    <t>RU-0B</t>
+  </si>
+  <si>
+    <t>US-0B</t>
+  </si>
+  <si>
+    <t>EU-CB</t>
+  </si>
+  <si>
+    <t>CH-CB</t>
+  </si>
+  <si>
+    <t>IN-CB</t>
+  </si>
+  <si>
+    <t>JP-CB</t>
+  </si>
+  <si>
+    <t>RU-CB</t>
+  </si>
+  <si>
+    <t>US-CB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -532,22 +531,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,334 +560,334 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -903,21 +902,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -934,9 +933,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -945,12 +944,12 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -962,9 +961,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -976,9 +975,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -990,9 +989,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1004,9 +1003,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1024,19 +1023,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48FBA25-505B-4D4A-83C2-22DBAE83D3E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,9 +1052,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1064,12 +1063,12 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1081,9 +1080,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1095,9 +1094,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1109,9 +1108,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1123,9 +1122,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1143,19 +1142,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E030C6-C054-CA42-A64B-C3EA3EE13934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1172,9 +1171,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1186,9 +1185,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1200,9 +1199,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1214,9 +1213,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1228,9 +1227,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1242,9 +1241,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1262,22 +1261,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1294,9 +1293,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1308,9 +1307,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1322,9 +1321,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1336,9 +1335,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1350,9 +1349,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1364,9 +1363,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
